--- a/static/99LH2325001.xlsx
+++ b/static/99LH2325001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="formation" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -32,8 +32,7 @@
     <t xml:space="preserve">TITRE</t>
   </si>
   <si>
-    <t xml:space="preserve">Évaluation et amélioration de la pertinence 
-Du parcours de soin du patient insuffisant cardiaque chronique</t>
+    <t xml:space="preserve">Évaluation et amélioration de la pertinence du parcours de soin du patient insuffisant cardiaque chronique</t>
   </si>
   <si>
     <t xml:space="preserve">CLASSE</t>
@@ -64,6 +63,30 @@
   </si>
   <si>
     <t xml:space="preserve">DOUNIA LHASBELLAOUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKOFORMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRESSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 rue Jean de la Bruyère 13320 Bouc Bel Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMERO DPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99LH</t>
   </si>
   <si>
     <t xml:space="preserve">Madame</t>
@@ -140,7 +163,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -175,17 +198,6 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica;Arial"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,14 +255,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,13 +275,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="91.62"/>
@@ -337,6 +341,38 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -357,13 +393,13 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="34.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.31"/>
@@ -372,115 +408,115 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="n">
         <v>10102535225</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>10102454013</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>10106546202</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>10107925512</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>10107923889</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
